--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,205 +43,13 @@
     <t>test_01_part_receipt_director_approval</t>
   </si>
   <si>
-    <t>8m54s</t>
+    <t>8m3s</t>
   </si>
   <si>
-    <t>2018-03-28 00:06:11</t>
+    <t>2018-03-29 10:23:19</t>
   </si>
   <si>
-    <t>2018-03-28 00:15:06</t>
-  </si>
-  <si>
-    <t>test_02_part_receipt_manage_approval</t>
-  </si>
-  <si>
-    <t>9m37s</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:15:13</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:24:51</t>
-  </si>
-  <si>
-    <t>test_03_receipt_first_approval</t>
-  </si>
-  <si>
-    <t>10m26s</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:24:59</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:35:25</t>
-  </si>
-  <si>
-    <t>test_04_part_finace_transact</t>
-  </si>
-  <si>
-    <t>11m4s</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:35:33</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:46:38</t>
-  </si>
-  <si>
-    <t>test_05_part_finace_branch_manage_aproval</t>
-  </si>
-  <si>
-    <t>11m42s</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:46:46</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:58:28</t>
-  </si>
-  <si>
-    <t>test_06_part_finace_approval_risk_control_manager</t>
-  </si>
-  <si>
-    <t>12m17s</t>
-  </si>
-  <si>
-    <t>2018-03-28 00:58:36</t>
-  </si>
-  <si>
-    <t>2018-03-28 01:10:53</t>
-  </si>
-  <si>
-    <t>test_07_part_finace_approval_financial_accounting</t>
-  </si>
-  <si>
-    <t>12m57s</t>
-  </si>
-  <si>
-    <t>2018-03-28 01:11:01</t>
-  </si>
-  <si>
-    <t>2018-03-28 01:23:58</t>
-  </si>
-  <si>
-    <t>test_08_part_finace_approval_financial_manager</t>
-  </si>
-  <si>
-    <t>13m16s</t>
-  </si>
-  <si>
-    <t>2018-03-28 01:24:07</t>
-  </si>
-  <si>
-    <t>2018-03-28 01:37:23</t>
-  </si>
-  <si>
-    <t>test_09_part_funds_raise</t>
-  </si>
-  <si>
-    <t>13m37s</t>
-  </si>
-  <si>
-    <t>2018-03-28 01:37:31</t>
-  </si>
-  <si>
-    <t>2018-03-28 01:51:08</t>
-  </si>
-  <si>
-    <t>test_10_part_authority_card_second_deal</t>
-  </si>
-  <si>
-    <t>14m29s</t>
-  </si>
-  <si>
-    <t>2018-03-28 01:51:16</t>
-  </si>
-  <si>
-    <t>2018-03-28 02:05:45</t>
-  </si>
-  <si>
-    <t>test_11_part_warrent_request_money</t>
-  </si>
-  <si>
-    <t>15m19s</t>
-  </si>
-  <si>
-    <t>2018-03-28 02:05:52</t>
-  </si>
-  <si>
-    <t>2018-03-28 02:21:12</t>
-  </si>
-  <si>
-    <t>test_12_part_finace_transact_second</t>
-  </si>
-  <si>
-    <t>15m59s</t>
-  </si>
-  <si>
-    <t>2018-03-28 02:21:19</t>
-  </si>
-  <si>
-    <t>2018-03-28 02:37:19</t>
-  </si>
-  <si>
-    <t>test_13_part_finace_branch_manage_aproval_second</t>
-  </si>
-  <si>
-    <t>16m33s</t>
-  </si>
-  <si>
-    <t>2018-03-28 02:37:26</t>
-  </si>
-  <si>
-    <t>2018-03-28 02:54:00</t>
-  </si>
-  <si>
-    <t>test_14_part_finace_approval_risk_control_manager</t>
-  </si>
-  <si>
-    <t>17m8s</t>
-  </si>
-  <si>
-    <t>2018-03-28 02:54:08</t>
-  </si>
-  <si>
-    <t>2018-03-28 03:11:16</t>
-  </si>
-  <si>
-    <t>test_15_part_finace_approval_financial_accounting_second</t>
-  </si>
-  <si>
-    <t>17m53s</t>
-  </si>
-  <si>
-    <t>2018-03-28 03:11:28</t>
-  </si>
-  <si>
-    <t>2018-03-28 03:29:21</t>
-  </si>
-  <si>
-    <t>test_16_finace_approval_financial_manager_second</t>
-  </si>
-  <si>
-    <t>18m11s</t>
-  </si>
-  <si>
-    <t>2018-03-28 03:29:33</t>
-  </si>
-  <si>
-    <t>2018-03-28 03:47:44</t>
-  </si>
-  <si>
-    <t>test_17_part_funds_raise_second</t>
-  </si>
-  <si>
-    <t>18m31s</t>
-  </si>
-  <si>
-    <t>2018-03-28 03:47:55</t>
-  </si>
-  <si>
-    <t>2018-03-28 04:06:27</t>
+    <t>2018-03-29 10:31:23</t>
   </si>
 </sst>
 </file>
@@ -735,338 +543,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1"/>
-    <row r="22" spans="1:6" ht="20" customHeight="1"/>
-    <row r="23" spans="1:6" ht="20" customHeight="1"/>
-    <row r="24" spans="1:6" ht="20" customHeight="1"/>
-    <row r="25" spans="1:6" ht="20" customHeight="1"/>
-    <row r="26" spans="1:6" ht="20" customHeight="1"/>
-    <row r="27" spans="1:6" ht="20" customHeight="1"/>
-    <row r="28" spans="1:6" ht="20" customHeight="1"/>
-    <row r="29" spans="1:6" ht="20" customHeight="1"/>
-    <row r="30" spans="1:6" ht="20" customHeight="1"/>
-    <row r="31" spans="1:6" ht="20" customHeight="1"/>
-    <row r="32" spans="1:6" ht="20" customHeight="1"/>
+    <row r="5" spans="1:6" ht="20" customHeight="1"/>
+    <row r="6" spans="1:6" ht="20" customHeight="1"/>
+    <row r="7" spans="1:6" ht="20" customHeight="1"/>
+    <row r="8" spans="1:6" ht="20" customHeight="1"/>
+    <row r="9" spans="1:6" ht="20" customHeight="1"/>
+    <row r="10" spans="1:6" ht="20" customHeight="1"/>
+    <row r="11" spans="1:6" ht="20" customHeight="1"/>
+    <row r="12" spans="1:6" ht="20" customHeight="1"/>
+    <row r="13" spans="1:6" ht="20" customHeight="1"/>
+    <row r="14" spans="1:6" ht="20" customHeight="1"/>
+    <row r="15" spans="1:6" ht="20" customHeight="1"/>
+    <row r="16" spans="1:6" ht="20" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
+    <row r="20" ht="20" customHeight="1"/>
+    <row r="21" ht="20" customHeight="1"/>
+    <row r="22" ht="20" customHeight="1"/>
+    <row r="23" ht="20" customHeight="1"/>
+    <row r="24" ht="20" customHeight="1"/>
+    <row r="25" ht="20" customHeight="1"/>
+    <row r="26" ht="20" customHeight="1"/>
+    <row r="27" ht="20" customHeight="1"/>
+    <row r="28" ht="20" customHeight="1"/>
+    <row r="29" ht="20" customHeight="1"/>
+    <row r="30" ht="20" customHeight="1"/>
+    <row r="31" ht="20" customHeight="1"/>
+    <row r="32" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -40,16 +40,16 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_01_part_receipt_director_approval</t>
+    <t>test_09_part_funds_raise</t>
   </si>
   <si>
-    <t>8m3s</t>
+    <t>13m59s</t>
   </si>
   <si>
-    <t>2018-03-29 10:23:19</t>
+    <t>2018-03-29 21:41:08</t>
   </si>
   <si>
-    <t>2018-03-29 10:31:23</t>
+    <t>2018-03-29 21:55:07</t>
   </si>
 </sst>
 </file>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -40,16 +40,16 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_09_part_funds_raise</t>
+    <t>test_17_part_funds_raise_second</t>
   </si>
   <si>
-    <t>13m59s</t>
+    <t>19m40s</t>
   </si>
   <si>
-    <t>2018-03-29 21:41:08</t>
+    <t>2018-04-03 15:09:45</t>
   </si>
   <si>
-    <t>2018-03-29 21:55:07</t>
+    <t>2018-04-03 15:29:26</t>
   </si>
 </sst>
 </file>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -28,6 +28,9 @@
     <t>用例编号</t>
   </si>
   <si>
+    <t>申请件单号</t>
+  </si>
+  <si>
     <t>执行结果</t>
   </si>
   <si>
@@ -40,16 +43,256 @@
     <t>结束时间</t>
   </si>
   <si>
+    <t>test_01_part_receipt_director_approval</t>
+  </si>
+  <si>
+    <t>GZ20180405C02</t>
+  </si>
+  <si>
+    <t>9m39s</t>
+  </si>
+  <si>
+    <t>2018-04-05 18:57:10</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:06:50</t>
+  </si>
+  <si>
+    <t>test_02_part_receipt_manage_approval</t>
+  </si>
+  <si>
+    <t>GZ20180405C03</t>
+  </si>
+  <si>
+    <t>10m28s</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:06:59</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:17:27</t>
+  </si>
+  <si>
+    <t>test_03_receipt_first_approval</t>
+  </si>
+  <si>
+    <t>GZ20180405C04</t>
+  </si>
+  <si>
+    <t>11m28s</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:17:38</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:29:06</t>
+  </si>
+  <si>
+    <t>test_04_part_finace_transact</t>
+  </si>
+  <si>
+    <t>GZ20180405C05</t>
+  </si>
+  <si>
+    <t>12m12s</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:29:15</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:41:28</t>
+  </si>
+  <si>
+    <t>test_05_part_finace_branch_manage_aproval</t>
+  </si>
+  <si>
+    <t>GZ20180405C06</t>
+  </si>
+  <si>
+    <t>12m51s</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:41:37</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:54:29</t>
+  </si>
+  <si>
+    <t>test_06_part_finace_approval_risk_control_manager</t>
+  </si>
+  <si>
+    <t>GZ20180405C07</t>
+  </si>
+  <si>
+    <t>13m33s</t>
+  </si>
+  <si>
+    <t>2018-04-05 19:54:38</t>
+  </si>
+  <si>
+    <t>2018-04-05 20:08:12</t>
+  </si>
+  <si>
+    <t>test_07_part_finace_approval_financial_accounting</t>
+  </si>
+  <si>
+    <t>GZ20180405C08</t>
+  </si>
+  <si>
+    <t>14m35s</t>
+  </si>
+  <si>
+    <t>2018-04-05 20:08:21</t>
+  </si>
+  <si>
+    <t>2018-04-05 20:22:57</t>
+  </si>
+  <si>
+    <t>test_08_part_finace_approval_financial_manager</t>
+  </si>
+  <si>
+    <t>GZ20180405C09</t>
+  </si>
+  <si>
+    <t>15m0s</t>
+  </si>
+  <si>
+    <t>2018-04-05 20:23:07</t>
+  </si>
+  <si>
+    <t>2018-04-05 20:38:07</t>
+  </si>
+  <si>
+    <t>test_09_part_funds_raise</t>
+  </si>
+  <si>
+    <t>GZ20180405C10</t>
+  </si>
+  <si>
+    <t>15m27s</t>
+  </si>
+  <si>
+    <t>2018-04-05 20:38:18</t>
+  </si>
+  <si>
+    <t>2018-04-05 20:53:45</t>
+  </si>
+  <si>
+    <t>test_10_part_authority_card_second_deal</t>
+  </si>
+  <si>
+    <t>GZ20180405C11</t>
+  </si>
+  <si>
+    <t>16m5s</t>
+  </si>
+  <si>
+    <t>2018-04-05 20:53:56</t>
+  </si>
+  <si>
+    <t>2018-04-05 21:10:01</t>
+  </si>
+  <si>
+    <t>test_11_part_warrent_request_money</t>
+  </si>
+  <si>
+    <t>GZ20180405C12</t>
+  </si>
+  <si>
+    <t>17m13s</t>
+  </si>
+  <si>
+    <t>2018-04-05 21:10:15</t>
+  </si>
+  <si>
+    <t>2018-04-05 21:27:29</t>
+  </si>
+  <si>
+    <t>GZ20180405C13</t>
+  </si>
+  <si>
+    <t>9m37s</t>
+  </si>
+  <si>
+    <t>2018-04-05 21:27:41</t>
+  </si>
+  <si>
+    <t>2018-04-05 21:37:18</t>
+  </si>
+  <si>
+    <t>test_13_part_finace_branch_manage_aproval_second</t>
+  </si>
+  <si>
+    <t>GZ20180405C14</t>
+  </si>
+  <si>
+    <t>17m32s</t>
+  </si>
+  <si>
+    <t>2018-04-05 21:37:32</t>
+  </si>
+  <si>
+    <t>2018-04-05 21:55:04</t>
+  </si>
+  <si>
+    <t>test_14_part_finace_approval_risk_control_manager</t>
+  </si>
+  <si>
+    <t>GZ20180405C15</t>
+  </si>
+  <si>
+    <t>18m41s</t>
+  </si>
+  <si>
+    <t>2018-04-05 21:55:13</t>
+  </si>
+  <si>
+    <t>2018-04-05 22:13:54</t>
+  </si>
+  <si>
+    <t>test_15_part_finace_approval_financial_accounting_second</t>
+  </si>
+  <si>
+    <t>GZ20180405C16</t>
+  </si>
+  <si>
+    <t>19m1s</t>
+  </si>
+  <si>
+    <t>2018-04-05 22:14:03</t>
+  </si>
+  <si>
+    <t>2018-04-05 22:33:04</t>
+  </si>
+  <si>
+    <t>test_16_finace_approval_financial_manager_second</t>
+  </si>
+  <si>
+    <t>GZ20180405C17</t>
+  </si>
+  <si>
+    <t>19m26s</t>
+  </si>
+  <si>
+    <t>2018-04-05 22:33:12</t>
+  </si>
+  <si>
+    <t>2018-04-05 22:52:39</t>
+  </si>
+  <si>
     <t>test_17_part_funds_raise_second</t>
   </si>
   <si>
-    <t>19m40s</t>
-  </si>
-  <si>
-    <t>2018-04-03 15:09:45</t>
-  </si>
-  <si>
-    <t>2018-04-03 15:29:26</t>
+    <t>GZ20180405C18</t>
+  </si>
+  <si>
+    <t>19m41s</t>
+  </si>
+  <si>
+    <t>2018-04-05 22:52:47</t>
+  </si>
+  <si>
+    <t>2018-04-05 23:12:29</t>
   </si>
 </sst>
 </file>
@@ -449,19 +692,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
@@ -483,7 +726,7 @@
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +735,9 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1">
+    <row r="2" spans="1:7" ht="25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -502,8 +746,9 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -522,55 +767,413 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1"/>
-    <row r="6" spans="1:6" ht="20" customHeight="1"/>
-    <row r="7" spans="1:6" ht="20" customHeight="1"/>
-    <row r="8" spans="1:6" ht="20" customHeight="1"/>
-    <row r="9" spans="1:6" ht="20" customHeight="1"/>
-    <row r="10" spans="1:6" ht="20" customHeight="1"/>
-    <row r="11" spans="1:6" ht="20" customHeight="1"/>
-    <row r="12" spans="1:6" ht="20" customHeight="1"/>
-    <row r="13" spans="1:6" ht="20" customHeight="1"/>
-    <row r="14" spans="1:6" ht="20" customHeight="1"/>
-    <row r="15" spans="1:6" ht="20" customHeight="1"/>
-    <row r="16" spans="1:6" ht="20" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1"/>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1"/>
-    <row r="20" ht="20" customHeight="1"/>
-    <row r="21" ht="20" customHeight="1"/>
-    <row r="22" ht="20" customHeight="1"/>
-    <row r="23" ht="20" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1"/>
-    <row r="25" ht="20" customHeight="1"/>
-    <row r="26" ht="20" customHeight="1"/>
-    <row r="27" ht="20" customHeight="1"/>
-    <row r="28" ht="20" customHeight="1"/>
-    <row r="29" ht="20" customHeight="1"/>
-    <row r="30" ht="20" customHeight="1"/>
-    <row r="31" ht="20" customHeight="1"/>
-    <row r="32" ht="20" customHeight="1"/>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1"/>
+    <row r="22" spans="1:7" ht="20" customHeight="1"/>
+    <row r="23" spans="1:7" ht="20" customHeight="1"/>
+    <row r="24" spans="1:7" ht="20" customHeight="1"/>
+    <row r="25" spans="1:7" ht="20" customHeight="1"/>
+    <row r="26" spans="1:7" ht="20" customHeight="1"/>
+    <row r="27" spans="1:7" ht="20" customHeight="1"/>
+    <row r="28" spans="1:7" ht="20" customHeight="1"/>
+    <row r="29" spans="1:7" ht="20" customHeight="1"/>
+    <row r="30" spans="1:7" ht="20" customHeight="1"/>
+    <row r="31" spans="1:7" ht="20" customHeight="1"/>
+    <row r="32" spans="1:7" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>
@@ -1541,8 +2144,8 @@
     <row r="1000" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,256 +43,16 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_01_part_receipt_director_approval</t>
+    <t>test_gqt_04_applydata</t>
   </si>
   <si>
-    <t>GZ20180405C02</t>
+    <t>1m52s</t>
   </si>
   <si>
-    <t>9m39s</t>
+    <t>2018-04-16 11:14:48</t>
   </si>
   <si>
-    <t>2018-04-05 18:57:10</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:06:50</t>
-  </si>
-  <si>
-    <t>test_02_part_receipt_manage_approval</t>
-  </si>
-  <si>
-    <t>GZ20180405C03</t>
-  </si>
-  <si>
-    <t>10m28s</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:06:59</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:17:27</t>
-  </si>
-  <si>
-    <t>test_03_receipt_first_approval</t>
-  </si>
-  <si>
-    <t>GZ20180405C04</t>
-  </si>
-  <si>
-    <t>11m28s</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:17:38</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:29:06</t>
-  </si>
-  <si>
-    <t>test_04_part_finace_transact</t>
-  </si>
-  <si>
-    <t>GZ20180405C05</t>
-  </si>
-  <si>
-    <t>12m12s</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:29:15</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:41:28</t>
-  </si>
-  <si>
-    <t>test_05_part_finace_branch_manage_aproval</t>
-  </si>
-  <si>
-    <t>GZ20180405C06</t>
-  </si>
-  <si>
-    <t>12m51s</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:41:37</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:54:29</t>
-  </si>
-  <si>
-    <t>test_06_part_finace_approval_risk_control_manager</t>
-  </si>
-  <si>
-    <t>GZ20180405C07</t>
-  </si>
-  <si>
-    <t>13m33s</t>
-  </si>
-  <si>
-    <t>2018-04-05 19:54:38</t>
-  </si>
-  <si>
-    <t>2018-04-05 20:08:12</t>
-  </si>
-  <si>
-    <t>test_07_part_finace_approval_financial_accounting</t>
-  </si>
-  <si>
-    <t>GZ20180405C08</t>
-  </si>
-  <si>
-    <t>14m35s</t>
-  </si>
-  <si>
-    <t>2018-04-05 20:08:21</t>
-  </si>
-  <si>
-    <t>2018-04-05 20:22:57</t>
-  </si>
-  <si>
-    <t>test_08_part_finace_approval_financial_manager</t>
-  </si>
-  <si>
-    <t>GZ20180405C09</t>
-  </si>
-  <si>
-    <t>15m0s</t>
-  </si>
-  <si>
-    <t>2018-04-05 20:23:07</t>
-  </si>
-  <si>
-    <t>2018-04-05 20:38:07</t>
-  </si>
-  <si>
-    <t>test_09_part_funds_raise</t>
-  </si>
-  <si>
-    <t>GZ20180405C10</t>
-  </si>
-  <si>
-    <t>15m27s</t>
-  </si>
-  <si>
-    <t>2018-04-05 20:38:18</t>
-  </si>
-  <si>
-    <t>2018-04-05 20:53:45</t>
-  </si>
-  <si>
-    <t>test_10_part_authority_card_second_deal</t>
-  </si>
-  <si>
-    <t>GZ20180405C11</t>
-  </si>
-  <si>
-    <t>16m5s</t>
-  </si>
-  <si>
-    <t>2018-04-05 20:53:56</t>
-  </si>
-  <si>
-    <t>2018-04-05 21:10:01</t>
-  </si>
-  <si>
-    <t>test_11_part_warrent_request_money</t>
-  </si>
-  <si>
-    <t>GZ20180405C12</t>
-  </si>
-  <si>
-    <t>17m13s</t>
-  </si>
-  <si>
-    <t>2018-04-05 21:10:15</t>
-  </si>
-  <si>
-    <t>2018-04-05 21:27:29</t>
-  </si>
-  <si>
-    <t>GZ20180405C13</t>
-  </si>
-  <si>
-    <t>9m37s</t>
-  </si>
-  <si>
-    <t>2018-04-05 21:27:41</t>
-  </si>
-  <si>
-    <t>2018-04-05 21:37:18</t>
-  </si>
-  <si>
-    <t>test_13_part_finace_branch_manage_aproval_second</t>
-  </si>
-  <si>
-    <t>GZ20180405C14</t>
-  </si>
-  <si>
-    <t>17m32s</t>
-  </si>
-  <si>
-    <t>2018-04-05 21:37:32</t>
-  </si>
-  <si>
-    <t>2018-04-05 21:55:04</t>
-  </si>
-  <si>
-    <t>test_14_part_finace_approval_risk_control_manager</t>
-  </si>
-  <si>
-    <t>GZ20180405C15</t>
-  </si>
-  <si>
-    <t>18m41s</t>
-  </si>
-  <si>
-    <t>2018-04-05 21:55:13</t>
-  </si>
-  <si>
-    <t>2018-04-05 22:13:54</t>
-  </si>
-  <si>
-    <t>test_15_part_finace_approval_financial_accounting_second</t>
-  </si>
-  <si>
-    <t>GZ20180405C16</t>
-  </si>
-  <si>
-    <t>19m1s</t>
-  </si>
-  <si>
-    <t>2018-04-05 22:14:03</t>
-  </si>
-  <si>
-    <t>2018-04-05 22:33:04</t>
-  </si>
-  <si>
-    <t>test_16_finace_approval_financial_manager_second</t>
-  </si>
-  <si>
-    <t>GZ20180405C17</t>
-  </si>
-  <si>
-    <t>19m26s</t>
-  </si>
-  <si>
-    <t>2018-04-05 22:33:12</t>
-  </si>
-  <si>
-    <t>2018-04-05 22:52:39</t>
-  </si>
-  <si>
-    <t>test_17_part_funds_raise_second</t>
-  </si>
-  <si>
-    <t>GZ20180405C18</t>
-  </si>
-  <si>
-    <t>19m41s</t>
-  </si>
-  <si>
-    <t>2018-04-05 22:52:47</t>
-  </si>
-  <si>
-    <t>2018-04-05 23:12:29</t>
+    <t>2018-04-16 11:16:40</t>
   </si>
 </sst>
 </file>
@@ -334,7 +94,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF27B621"/>
+      <color rgb="FFF70C0C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -778,402 +538,48 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1"/>
-    <row r="22" spans="1:7" ht="20" customHeight="1"/>
-    <row r="23" spans="1:7" ht="20" customHeight="1"/>
-    <row r="24" spans="1:7" ht="20" customHeight="1"/>
-    <row r="25" spans="1:7" ht="20" customHeight="1"/>
-    <row r="26" spans="1:7" ht="20" customHeight="1"/>
-    <row r="27" spans="1:7" ht="20" customHeight="1"/>
-    <row r="28" spans="1:7" ht="20" customHeight="1"/>
-    <row r="29" spans="1:7" ht="20" customHeight="1"/>
-    <row r="30" spans="1:7" ht="20" customHeight="1"/>
-    <row r="31" spans="1:7" ht="20" customHeight="1"/>
-    <row r="32" spans="1:7" ht="20" customHeight="1"/>
+    <row r="5" spans="1:7" ht="20" customHeight="1"/>
+    <row r="6" spans="1:7" ht="20" customHeight="1"/>
+    <row r="7" spans="1:7" ht="20" customHeight="1"/>
+    <row r="8" spans="1:7" ht="20" customHeight="1"/>
+    <row r="9" spans="1:7" ht="20" customHeight="1"/>
+    <row r="10" spans="1:7" ht="20" customHeight="1"/>
+    <row r="11" spans="1:7" ht="20" customHeight="1"/>
+    <row r="12" spans="1:7" ht="20" customHeight="1"/>
+    <row r="13" spans="1:7" ht="20" customHeight="1"/>
+    <row r="14" spans="1:7" ht="20" customHeight="1"/>
+    <row r="15" spans="1:7" ht="20" customHeight="1"/>
+    <row r="16" spans="1:7" ht="20" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
+    <row r="20" ht="20" customHeight="1"/>
+    <row r="21" ht="20" customHeight="1"/>
+    <row r="22" ht="20" customHeight="1"/>
+    <row r="23" ht="20" customHeight="1"/>
+    <row r="24" ht="20" customHeight="1"/>
+    <row r="25" ht="20" customHeight="1"/>
+    <row r="26" ht="20" customHeight="1"/>
+    <row r="27" ht="20" customHeight="1"/>
+    <row r="28" ht="20" customHeight="1"/>
+    <row r="29" ht="20" customHeight="1"/>
+    <row r="30" ht="20" customHeight="1"/>
+    <row r="31" ht="20" customHeight="1"/>
+    <row r="32" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,23 +43,296 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_gqt_04_applydata</t>
-  </si>
-  <si>
-    <t>1m52s</t>
-  </si>
-  <si>
-    <t>2018-04-16 11:14:48</t>
-  </si>
-  <si>
-    <t>2018-04-16 11:16:40</t>
+    <t>test_random_product_01_base_info</t>
+  </si>
+  <si>
+    <t>23.6s</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:49:51</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:50:14</t>
+  </si>
+  <si>
+    <t>test_random_product_02_borrowr_info</t>
+  </si>
+  <si>
+    <t>49.0s</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:50:25</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:51:14</t>
+  </si>
+  <si>
+    <t>test_random_product_03_Property_info</t>
+  </si>
+  <si>
+    <t>1m0s</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:51:24</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:52:25</t>
+  </si>
+  <si>
+    <t>test_random_product_04_applydata</t>
+  </si>
+  <si>
+    <t>1m4s</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:52:36</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:53:40</t>
+  </si>
+  <si>
+    <t>test_random_product_05_get_applyCode</t>
+  </si>
+  <si>
+    <t>GZ20180417E06</t>
+  </si>
+  <si>
+    <t>1m14s</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:53:51</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:55:05</t>
+  </si>
+  <si>
+    <t>test_random_product_07_process_monitor</t>
+  </si>
+  <si>
+    <t>GZ20180417E07</t>
+  </si>
+  <si>
+    <t>1m31s</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:55:23</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:56:54</t>
+  </si>
+  <si>
+    <t>test_random_product_08_branch_supervisor_approval</t>
+  </si>
+  <si>
+    <t>GZ20180417E08</t>
+  </si>
+  <si>
+    <t>2m39s</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:57:02</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:59:42</t>
+  </si>
+  <si>
+    <t>test_random_product_09_branch_manager_approval</t>
+  </si>
+  <si>
+    <t>GZ20180417X02</t>
+  </si>
+  <si>
+    <t>3m33s</t>
+  </si>
+  <si>
+    <t>2018-04-17 11:59:51</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:03:24</t>
+  </si>
+  <si>
+    <t>test_random_product_10_regional_prereview</t>
+  </si>
+  <si>
+    <t>GZ20180417E09</t>
+  </si>
+  <si>
+    <t>4m28s</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:03:32</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:08:01</t>
+  </si>
+  <si>
+    <t>test_random_product_11_manager_approval</t>
+  </si>
+  <si>
+    <t>GZ20180417E10</t>
+  </si>
+  <si>
+    <t>5m26s</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:08:10</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:13:36</t>
+  </si>
+  <si>
+    <t>test_random_product_12_contract_signing</t>
+  </si>
+  <si>
+    <t>GZ20180417E11</t>
+  </si>
+  <si>
+    <t>6m16s</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:13:45</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:20:01</t>
+  </si>
+  <si>
+    <t>test_random_product_13_compliance_audit</t>
+  </si>
+  <si>
+    <t>GZ20180417E12</t>
+  </si>
+  <si>
+    <t>6m56s</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:20:09</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:27:06</t>
+  </si>
+  <si>
+    <t>test_random_product_14_authority_card_member_transact</t>
+  </si>
+  <si>
+    <t>GZ20180417X03</t>
+  </si>
+  <si>
+    <t>8m6s</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:27:16</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:35:23</t>
+  </si>
+  <si>
+    <t>test_random_product_15_warrant_apply</t>
+  </si>
+  <si>
+    <t>GZ20180417X04</t>
+  </si>
+  <si>
+    <t>8m41s</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:35:32</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:44:13</t>
+  </si>
+  <si>
+    <t>test_random_product_16_finace_transact</t>
+  </si>
+  <si>
+    <t>GZ20180417X05</t>
+  </si>
+  <si>
+    <t>8m55s</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:44:22</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:53:18</t>
+  </si>
+  <si>
+    <t>test_random_product_17_finace_approval_branch_manager</t>
+  </si>
+  <si>
+    <t>GZ20180417E13</t>
+  </si>
+  <si>
+    <t>9m26s</t>
+  </si>
+  <si>
+    <t>2018-04-17 12:53:26</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:02:52</t>
+  </si>
+  <si>
+    <t>test_random_product_18_finace_approval_risk_control_manager</t>
+  </si>
+  <si>
+    <t>GZ20180417X06</t>
+  </si>
+  <si>
+    <t>10m12s</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:03:00</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:13:13</t>
+  </si>
+  <si>
+    <t>test_random_product_19_finace_approval_financial_accounting</t>
+  </si>
+  <si>
+    <t>GZ20180417E14</t>
+  </si>
+  <si>
+    <t>10m55s</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:13:21</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:24:16</t>
+  </si>
+  <si>
+    <t>test_random_product_20_finace_approval_financial_manager</t>
+  </si>
+  <si>
+    <t>GZ20180417E15</t>
+  </si>
+  <si>
+    <t>11m20s</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:24:24</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:35:44</t>
+  </si>
+  <si>
+    <t>GZ20180417E16</t>
+  </si>
+  <si>
+    <t>3m43s</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:35:53</t>
+  </si>
+  <si>
+    <t>2018-04-17 13:39:36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +360,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0026CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF27B621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +437,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +824,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -552,34 +836,446 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1"/>
-    <row r="6" spans="1:7" ht="20" customHeight="1"/>
-    <row r="7" spans="1:7" ht="20" customHeight="1"/>
-    <row r="8" spans="1:7" ht="20" customHeight="1"/>
-    <row r="9" spans="1:7" ht="20" customHeight="1"/>
-    <row r="10" spans="1:7" ht="20" customHeight="1"/>
-    <row r="11" spans="1:7" ht="20" customHeight="1"/>
-    <row r="12" spans="1:7" ht="20" customHeight="1"/>
-    <row r="13" spans="1:7" ht="20" customHeight="1"/>
-    <row r="14" spans="1:7" ht="20" customHeight="1"/>
-    <row r="15" spans="1:7" ht="20" customHeight="1"/>
-    <row r="16" spans="1:7" ht="20" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1"/>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1"/>
-    <row r="20" ht="20" customHeight="1"/>
-    <row r="21" ht="20" customHeight="1"/>
-    <row r="22" ht="20" customHeight="1"/>
-    <row r="23" ht="20" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1"/>
-    <row r="25" ht="20" customHeight="1"/>
-    <row r="26" ht="20" customHeight="1"/>
-    <row r="27" ht="20" customHeight="1"/>
-    <row r="28" ht="20" customHeight="1"/>
-    <row r="29" ht="20" customHeight="1"/>
-    <row r="30" ht="20" customHeight="1"/>
-    <row r="31" ht="20" customHeight="1"/>
-    <row r="32" ht="20" customHeight="1"/>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1"/>
+    <row r="25" spans="1:7" ht="20" customHeight="1"/>
+    <row r="26" spans="1:7" ht="20" customHeight="1"/>
+    <row r="27" spans="1:7" ht="20" customHeight="1"/>
+    <row r="28" spans="1:7" ht="20" customHeight="1"/>
+    <row r="29" spans="1:7" ht="20" customHeight="1"/>
+    <row r="30" spans="1:7" ht="20" customHeight="1"/>
+    <row r="31" spans="1:7" ht="20" customHeight="1"/>
+    <row r="32" spans="1:7" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -46,286 +46,37 @@
     <t>test_random_product_01_base_info</t>
   </si>
   <si>
-    <t>23.6s</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:49:51</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:50:14</t>
+    <t>5.20s</t>
+  </si>
+  <si>
+    <t>2018-04-17 18:06:56</t>
+  </si>
+  <si>
+    <t>2018-04-17 18:07:01</t>
   </si>
   <si>
     <t>test_random_product_02_borrowr_info</t>
   </si>
   <si>
-    <t>49.0s</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:50:25</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:51:14</t>
+    <t>49.5s</t>
+  </si>
+  <si>
+    <t>2018-04-17 18:07:13</t>
+  </si>
+  <si>
+    <t>2018-04-17 18:08:02</t>
   </si>
   <si>
     <t>test_random_product_03_Property_info</t>
   </si>
   <si>
-    <t>1m0s</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:51:24</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:52:25</t>
-  </si>
-  <si>
-    <t>test_random_product_04_applydata</t>
-  </si>
-  <si>
-    <t>1m4s</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:52:36</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:53:40</t>
-  </si>
-  <si>
-    <t>test_random_product_05_get_applyCode</t>
-  </si>
-  <si>
-    <t>GZ20180417E06</t>
-  </si>
-  <si>
-    <t>1m14s</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:53:51</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:55:05</t>
-  </si>
-  <si>
-    <t>test_random_product_07_process_monitor</t>
-  </si>
-  <si>
-    <t>GZ20180417E07</t>
-  </si>
-  <si>
-    <t>1m31s</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:55:23</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:56:54</t>
-  </si>
-  <si>
-    <t>test_random_product_08_branch_supervisor_approval</t>
-  </si>
-  <si>
-    <t>GZ20180417E08</t>
-  </si>
-  <si>
-    <t>2m39s</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:57:02</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:59:42</t>
-  </si>
-  <si>
-    <t>test_random_product_09_branch_manager_approval</t>
-  </si>
-  <si>
-    <t>GZ20180417X02</t>
-  </si>
-  <si>
-    <t>3m33s</t>
-  </si>
-  <si>
-    <t>2018-04-17 11:59:51</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:03:24</t>
-  </si>
-  <si>
-    <t>test_random_product_10_regional_prereview</t>
-  </si>
-  <si>
-    <t>GZ20180417E09</t>
-  </si>
-  <si>
-    <t>4m28s</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:03:32</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:08:01</t>
-  </si>
-  <si>
-    <t>test_random_product_11_manager_approval</t>
-  </si>
-  <si>
-    <t>GZ20180417E10</t>
-  </si>
-  <si>
-    <t>5m26s</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:08:10</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:13:36</t>
-  </si>
-  <si>
-    <t>test_random_product_12_contract_signing</t>
-  </si>
-  <si>
-    <t>GZ20180417E11</t>
-  </si>
-  <si>
-    <t>6m16s</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:13:45</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:20:01</t>
-  </si>
-  <si>
-    <t>test_random_product_13_compliance_audit</t>
-  </si>
-  <si>
-    <t>GZ20180417E12</t>
-  </si>
-  <si>
-    <t>6m56s</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:20:09</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:27:06</t>
-  </si>
-  <si>
-    <t>test_random_product_14_authority_card_member_transact</t>
-  </si>
-  <si>
-    <t>GZ20180417X03</t>
-  </si>
-  <si>
-    <t>8m6s</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:27:16</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:35:23</t>
-  </si>
-  <si>
-    <t>test_random_product_15_warrant_apply</t>
-  </si>
-  <si>
-    <t>GZ20180417X04</t>
-  </si>
-  <si>
-    <t>8m41s</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:35:32</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:44:13</t>
-  </si>
-  <si>
-    <t>test_random_product_16_finace_transact</t>
-  </si>
-  <si>
-    <t>GZ20180417X05</t>
-  </si>
-  <si>
-    <t>8m55s</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:44:22</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:53:18</t>
-  </si>
-  <si>
-    <t>test_random_product_17_finace_approval_branch_manager</t>
-  </si>
-  <si>
-    <t>GZ20180417E13</t>
-  </si>
-  <si>
-    <t>9m26s</t>
-  </si>
-  <si>
-    <t>2018-04-17 12:53:26</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:02:52</t>
-  </si>
-  <si>
-    <t>test_random_product_18_finace_approval_risk_control_manager</t>
-  </si>
-  <si>
-    <t>GZ20180417X06</t>
-  </si>
-  <si>
-    <t>10m12s</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:03:00</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:13:13</t>
-  </si>
-  <si>
-    <t>test_random_product_19_finace_approval_financial_accounting</t>
-  </si>
-  <si>
-    <t>GZ20180417E14</t>
-  </si>
-  <si>
-    <t>10m55s</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:13:21</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:24:16</t>
-  </si>
-  <si>
-    <t>test_random_product_20_finace_approval_financial_manager</t>
-  </si>
-  <si>
-    <t>GZ20180417E15</t>
-  </si>
-  <si>
-    <t>11m20s</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:24:24</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:35:44</t>
-  </si>
-  <si>
-    <t>GZ20180417E16</t>
-  </si>
-  <si>
-    <t>3m43s</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:35:53</t>
-  </si>
-  <si>
-    <t>2018-04-17 13:39:36</t>
+    <t>1m1s</t>
+  </si>
+  <si>
+    <t>2018-04-17 18:08:13</t>
+  </si>
+  <si>
+    <t>2018-04-17 18:09:14</t>
   </si>
 </sst>
 </file>
@@ -367,7 +118,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF27B621"/>
+      <color rgb="FFF70C0C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,7 +126,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFF70C0C"/>
+      <color rgb="FF27B621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -824,7 +575,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -844,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="5" t="b">
+      <c r="D5" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -865,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="5" t="b">
+      <c r="D6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -878,404 +629,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1"/>
-    <row r="25" spans="1:7" ht="20" customHeight="1"/>
-    <row r="26" spans="1:7" ht="20" customHeight="1"/>
-    <row r="27" spans="1:7" ht="20" customHeight="1"/>
-    <row r="28" spans="1:7" ht="20" customHeight="1"/>
-    <row r="29" spans="1:7" ht="20" customHeight="1"/>
-    <row r="30" spans="1:7" ht="20" customHeight="1"/>
-    <row r="31" spans="1:7" ht="20" customHeight="1"/>
-    <row r="32" spans="1:7" ht="20" customHeight="1"/>
+    <row r="7" spans="1:7" ht="20" customHeight="1"/>
+    <row r="8" spans="1:7" ht="20" customHeight="1"/>
+    <row r="9" spans="1:7" ht="20" customHeight="1"/>
+    <row r="10" spans="1:7" ht="20" customHeight="1"/>
+    <row r="11" spans="1:7" ht="20" customHeight="1"/>
+    <row r="12" spans="1:7" ht="20" customHeight="1"/>
+    <row r="13" spans="1:7" ht="20" customHeight="1"/>
+    <row r="14" spans="1:7" ht="20" customHeight="1"/>
+    <row r="15" spans="1:7" ht="20" customHeight="1"/>
+    <row r="16" spans="1:7" ht="20" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
+    <row r="20" ht="20" customHeight="1"/>
+    <row r="21" ht="20" customHeight="1"/>
+    <row r="22" ht="20" customHeight="1"/>
+    <row r="23" ht="20" customHeight="1"/>
+    <row r="24" ht="20" customHeight="1"/>
+    <row r="25" ht="20" customHeight="1"/>
+    <row r="26" ht="20" customHeight="1"/>
+    <row r="27" ht="20" customHeight="1"/>
+    <row r="28" ht="20" customHeight="1"/>
+    <row r="29" ht="20" customHeight="1"/>
+    <row r="30" ht="20" customHeight="1"/>
+    <row r="31" ht="20" customHeight="1"/>
+    <row r="32" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,47 +43,26 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_random_product_01_base_info</t>
+    <t>test_random_product_05_get_applyCode</t>
   </si>
   <si>
-    <t>5.20s</t>
+    <t>DG20180418E04</t>
   </si>
   <si>
-    <t>2018-04-17 18:06:56</t>
+    <t>1m16s</t>
   </si>
   <si>
-    <t>2018-04-17 18:07:01</t>
+    <t>2018-04-18 10:54:27</t>
   </si>
   <si>
-    <t>test_random_product_02_borrowr_info</t>
-  </si>
-  <si>
-    <t>49.5s</t>
-  </si>
-  <si>
-    <t>2018-04-17 18:07:13</t>
-  </si>
-  <si>
-    <t>2018-04-17 18:08:02</t>
-  </si>
-  <si>
-    <t>test_random_product_03_Property_info</t>
-  </si>
-  <si>
-    <t>1m1s</t>
-  </si>
-  <si>
-    <t>2018-04-17 18:08:13</t>
-  </si>
-  <si>
-    <t>2018-04-17 18:09:14</t>
+    <t>2018-04-18 10:55:43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +90,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0026CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFF70C0C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,9 +159,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,62 +541,24 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1"/>
+    <row r="6" spans="1:7" ht="20" customHeight="1"/>
     <row r="7" spans="1:7" ht="20" customHeight="1"/>
     <row r="8" spans="1:7" ht="20" customHeight="1"/>
     <row r="9" spans="1:7" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -43,19 +43,19 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_random_product_05_get_applyCode</t>
+    <t>test_06_6Person_contract</t>
   </si>
   <si>
-    <t>DG20180418E04</t>
+    <t>DG20180420E01</t>
   </si>
   <si>
-    <t>1m16s</t>
+    <t>5m56s</t>
   </si>
   <si>
-    <t>2018-04-18 10:54:27</t>
+    <t>2018-04-20 09:34:44</t>
   </si>
   <si>
-    <t>2018-04-18 10:55:43</t>
+    <t>2018-04-20 09:40:40</t>
   </si>
 </sst>
 </file>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -43,19 +43,19 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_06_6Person_contract</t>
+    <t>test_01_warrantManage_original</t>
   </si>
   <si>
-    <t>DG20180420E01</t>
+    <t>DG20180420E05</t>
   </si>
   <si>
-    <t>5m56s</t>
+    <t>9m57s</t>
   </si>
   <si>
-    <t>2018-04-20 09:34:44</t>
+    <t>2018-04-20 17:44:34</t>
   </si>
   <si>
-    <t>2018-04-20 09:40:40</t>
+    <t>2018-04-20 17:54:31</t>
   </si>
 </sst>
 </file>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -43,19 +43,19 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_01_warrantManage_original</t>
+    <t>test_random_product_16_finace_transact</t>
   </si>
   <si>
-    <t>DG20180420E05</t>
+    <t>DG20180425C02</t>
   </si>
   <si>
-    <t>9m57s</t>
+    <t>7m40s</t>
   </si>
   <si>
-    <t>2018-04-20 17:44:34</t>
+    <t>2018-04-25 09:25:13</t>
   </si>
   <si>
-    <t>2018-04-20 17:54:31</t>
+    <t>2018-04-25 09:32:53</t>
   </si>
 </sst>
 </file>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -43,19 +43,19 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_random_product_16_finace_transact</t>
+    <t>test_random_product_21_funds_raise</t>
   </si>
   <si>
-    <t>DG20180425C02</t>
+    <t>DG20180426E03</t>
   </si>
   <si>
-    <t>7m40s</t>
+    <t>10m40s</t>
   </si>
   <si>
-    <t>2018-04-25 09:25:13</t>
+    <t>2018-04-26 15:13:03</t>
   </si>
   <si>
-    <t>2018-04-25 09:32:53</t>
+    <t>2018-04-26 15:23:44</t>
   </si>
 </sst>
 </file>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,19 +43,16 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_random_product_21_funds_raise</t>
+    <t>0.60s</t>
   </si>
   <si>
-    <t>DG20180426E03</t>
+    <t>2018-04-27 16:59:01</t>
   </si>
   <si>
-    <t>10m40s</t>
+    <t>0.10s</t>
   </si>
   <si>
-    <t>2018-04-26 15:13:03</t>
-  </si>
-  <si>
-    <t>2018-04-26 15:23:44</t>
+    <t>2018-04-27 16:59:02</t>
   </si>
 </sst>
 </file>
@@ -538,26 +535,40 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1"/>
     <row r="6" spans="1:7" ht="20" customHeight="1"/>
     <row r="7" spans="1:7" ht="20" customHeight="1"/>
     <row r="8" spans="1:7" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,16 +43,13 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>0.60s</t>
+    <t>1.80s</t>
   </si>
   <si>
-    <t>2018-04-27 16:59:01</t>
+    <t>2018-05-04 16:51:39</t>
   </si>
   <si>
-    <t>0.10s</t>
-  </si>
-  <si>
-    <t>2018-04-27 16:59:02</t>
+    <t>2018-05-04 16:51:41</t>
   </si>
 </sst>
 </file>
@@ -547,28 +544,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1"/>
     <row r="6" spans="1:7" ht="20" customHeight="1"/>
     <row r="7" spans="1:7" ht="20" customHeight="1"/>
     <row r="8" spans="1:7" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,13 +43,19 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>1.80s</t>
+    <t>test_01_query_done_list</t>
   </si>
   <si>
-    <t>2018-05-04 16:51:39</t>
+    <t>DG20180510X02</t>
   </si>
   <si>
-    <t>2018-05-04 16:51:41</t>
+    <t>2m17s</t>
+  </si>
+  <si>
+    <t>2018-05-10 13:37:49</t>
+  </si>
+  <si>
+    <t>2018-05-10 13:40:07</t>
   </si>
 </sst>
 </file>
@@ -532,19 +538,23 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,19 +43,16 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_01_query_done_list</t>
+    <t>test_03_two_borrower</t>
   </si>
   <si>
-    <t>DG20180510X02</t>
+    <t>1m14s</t>
   </si>
   <si>
-    <t>2m17s</t>
+    <t>2018-05-15 10:34:49</t>
   </si>
   <si>
-    <t>2018-05-10 13:37:49</t>
-  </si>
-  <si>
-    <t>2018-05-10 13:40:07</t>
+    <t>2018-05-15 10:36:03</t>
   </si>
 </sst>
 </file>
@@ -541,20 +538,18 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,16 +43,19 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_03_two_borrower</t>
+    <t>test_02_2Person_contract</t>
   </si>
   <si>
-    <t>1m14s</t>
+    <t>DG20180517E39</t>
   </si>
   <si>
-    <t>2018-05-15 10:34:49</t>
+    <t>4m50s</t>
   </si>
   <si>
-    <t>2018-05-15 10:36:03</t>
+    <t>2018-05-17 17:39:41</t>
+  </si>
+  <si>
+    <t>2018-05-17 17:44:32</t>
   </si>
 </sst>
 </file>
@@ -538,18 +541,20 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -43,19 +43,19 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_02_2Person_contract</t>
+    <t>test_09_20Person_contract</t>
   </si>
   <si>
-    <t>DG20180517E39</t>
+    <t>DG20180517E40</t>
   </si>
   <si>
-    <t>4m50s</t>
+    <t>9m7s</t>
   </si>
   <si>
-    <t>2018-05-17 17:39:41</t>
+    <t>2018-05-17 17:52:29</t>
   </si>
   <si>
-    <t>2018-05-17 17:44:32</t>
+    <t>2018-05-17 18:01:37</t>
   </si>
 </sst>
 </file>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,19 +43,16 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_09_20Person_contract</t>
+    <t>DG20180524C42</t>
   </si>
   <si>
-    <t>DG20180517E40</t>
+    <t>3.18s</t>
   </si>
   <si>
-    <t>9m7s</t>
+    <t>2018-05-24 16:47:53</t>
   </si>
   <si>
-    <t>2018-05-17 17:52:29</t>
-  </si>
-  <si>
-    <t>2018-05-17 18:01:37</t>
+    <t>2018-05-24 16:47:56</t>
   </si>
 </sst>
 </file>
@@ -538,23 +535,21 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,16 +43,19 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>DG20180524C42</t>
+    <t>test_05_five_person_sign</t>
   </si>
   <si>
-    <t>3.18s</t>
+    <t>GZ20180601X02</t>
   </si>
   <si>
-    <t>2018-05-24 16:47:53</t>
+    <t>6m18s</t>
   </si>
   <si>
-    <t>2018-05-24 16:47:56</t>
+    <t>2018-06-01 14:43:06</t>
+  </si>
+  <si>
+    <t>2018-06-01 14:49:24</t>
   </si>
 </sst>
 </file>
@@ -535,21 +538,23 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -43,26 +43,290 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>test_05_five_person_sign</t>
-  </si>
-  <si>
-    <t>GZ20180601X02</t>
-  </si>
-  <si>
-    <t>6m18s</t>
-  </si>
-  <si>
-    <t>2018-06-01 14:43:06</t>
-  </si>
-  <si>
-    <t>2018-06-01 14:49:24</t>
+    <t>test_random_product_01_base_info</t>
+  </si>
+  <si>
+    <t>26.4s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:04:14</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:04:40</t>
+  </si>
+  <si>
+    <t>test_random_product_02_borrowr_info</t>
+  </si>
+  <si>
+    <t>51.3s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:04:51</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:05:42</t>
+  </si>
+  <si>
+    <t>test_random_product_03_Property_info</t>
+  </si>
+  <si>
+    <t>1m4s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:05:54</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:06:59</t>
+  </si>
+  <si>
+    <t>test_random_product_04_applydata</t>
+  </si>
+  <si>
+    <t>1m7s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:07:09</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:08:16</t>
+  </si>
+  <si>
+    <t>test_random_product_05_get_applyCode</t>
+  </si>
+  <si>
+    <t>GZ20180715Y02</t>
+  </si>
+  <si>
+    <t>1m17s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:08:26</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:09:43</t>
+  </si>
+  <si>
+    <t>test_random_product_06_show_task</t>
+  </si>
+  <si>
+    <t>GZ20180715S03</t>
+  </si>
+  <si>
+    <t>1m51s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:09:52</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:11:43</t>
+  </si>
+  <si>
+    <t>test_random_product_07_process_monitor</t>
+  </si>
+  <si>
+    <t>GZ20180715Y03</t>
+  </si>
+  <si>
+    <t>1m34s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:11:51</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:13:25</t>
+  </si>
+  <si>
+    <t>test_random_product_08_branch_supervisor_approval</t>
+  </si>
+  <si>
+    <t>GZ20180715Y04</t>
+  </si>
+  <si>
+    <t>2m27s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:13:32</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:15:59</t>
+  </si>
+  <si>
+    <t>test_random_product_09_branch_manager_approval</t>
+  </si>
+  <si>
+    <t>GZ20180715Y05</t>
+  </si>
+  <si>
+    <t>3m18s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:16:06</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:19:25</t>
+  </si>
+  <si>
+    <t>test_random_product_10_regional_prereview</t>
+  </si>
+  <si>
+    <t>GZ20180715Y06</t>
+  </si>
+  <si>
+    <t>4m16s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:19:32</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:23:48</t>
+  </si>
+  <si>
+    <t>test_random_product_11_manager_approval</t>
+  </si>
+  <si>
+    <t>GZ20180715S04</t>
+  </si>
+  <si>
+    <t>5m11s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:23:56</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:29:08</t>
+  </si>
+  <si>
+    <t>test_random_product_12_contract_signing</t>
+  </si>
+  <si>
+    <t>GZ20180715Y07</t>
+  </si>
+  <si>
+    <t>5m56s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:29:15</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:35:12</t>
+  </si>
+  <si>
+    <t>test_random_product_13_compliance_audit</t>
+  </si>
+  <si>
+    <t>GZ20180715S05</t>
+  </si>
+  <si>
+    <t>6m47s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:35:20</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:42:07</t>
+  </si>
+  <si>
+    <t>GZ20180715Y08</t>
+  </si>
+  <si>
+    <t>6m56s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:42:14</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:49:11</t>
+  </si>
+  <si>
+    <t>GZ20180715Y09</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:49:18</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:56:06</t>
+  </si>
+  <si>
+    <t>GZ20180715Y10</t>
+  </si>
+  <si>
+    <t>6m52s</t>
+  </si>
+  <si>
+    <t>2018-07-15 15:56:13</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:03:05</t>
+  </si>
+  <si>
+    <t>GZ20180715Y11</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:03:12</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:10:00</t>
+  </si>
+  <si>
+    <t>GZ20180715Y12</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:10:07</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:16:54</t>
+  </si>
+  <si>
+    <t>GZ20180715Y13</t>
+  </si>
+  <si>
+    <t>6m49s</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:17:02</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:23:51</t>
+  </si>
+  <si>
+    <t>GZ20180715Y14</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:23:58</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:30:55</t>
+  </si>
+  <si>
+    <t>GZ20180715Y15</t>
+  </si>
+  <si>
+    <t>6m48s</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:31:02</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:37:51</t>
+  </si>
+  <si>
+    <t>GZ20180715Y16</t>
+  </si>
+  <si>
+    <t>6m45s</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:37:58</t>
+  </si>
+  <si>
+    <t>2018-07-15 16:44:43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +362,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF27B621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF70C0C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +431,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,50 +816,504 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1"/>
-    <row r="6" spans="1:7" ht="20" customHeight="1"/>
-    <row r="7" spans="1:7" ht="20" customHeight="1"/>
-    <row r="8" spans="1:7" ht="20" customHeight="1"/>
-    <row r="9" spans="1:7" ht="20" customHeight="1"/>
-    <row r="10" spans="1:7" ht="20" customHeight="1"/>
-    <row r="11" spans="1:7" ht="20" customHeight="1"/>
-    <row r="12" spans="1:7" ht="20" customHeight="1"/>
-    <row r="13" spans="1:7" ht="20" customHeight="1"/>
-    <row r="14" spans="1:7" ht="20" customHeight="1"/>
-    <row r="15" spans="1:7" ht="20" customHeight="1"/>
-    <row r="16" spans="1:7" ht="20" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1"/>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1"/>
-    <row r="20" ht="20" customHeight="1"/>
-    <row r="21" ht="20" customHeight="1"/>
-    <row r="22" ht="20" customHeight="1"/>
-    <row r="23" ht="20" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1"/>
-    <row r="25" ht="20" customHeight="1"/>
-    <row r="26" ht="20" customHeight="1"/>
-    <row r="27" ht="20" customHeight="1"/>
-    <row r="28" ht="20" customHeight="1"/>
-    <row r="29" ht="20" customHeight="1"/>
-    <row r="30" ht="20" customHeight="1"/>
-    <row r="31" ht="20" customHeight="1"/>
-    <row r="32" ht="20" customHeight="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20" customHeight="1"/>
+    <row r="27" spans="1:7" ht="20" customHeight="1"/>
+    <row r="28" spans="1:7" ht="20" customHeight="1"/>
+    <row r="29" spans="1:7" ht="20" customHeight="1"/>
+    <row r="30" spans="1:7" ht="20" customHeight="1"/>
+    <row r="31" spans="1:7" ht="20" customHeight="1"/>
+    <row r="32" spans="1:7" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>
